--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Required Software and Setup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Serial No.</t>
   </si>
@@ -75,6 +75,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Refer </t>
     </r>
     <r>
@@ -156,6 +163,15 @@
     </r>
   </si>
   <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>https://kafka.apache.org/downloads</t>
+  </si>
+  <si>
+    <t>Installation and configuration will be done in class</t>
+  </si>
+  <si>
     <t>Postman</t>
   </si>
   <si>
@@ -197,9 +213,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -257,29 +273,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,20 +326,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -338,14 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -361,24 +355,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,187 +418,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,17 +609,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -693,18 +698,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,131 +733,131 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -859,9 +875,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1190,10 +1205,10 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1302,57 +1317,57 @@
     <row r="12" spans="1:1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" ht="18.75" spans="1:3">
+    <row r="13" ht="18.75" spans="1:4">
       <c r="A13" s="2">
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" ht="18.75" spans="1:4">
+    <row r="15" ht="18.75" spans="1:3">
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" ht="18.75" spans="1:3">
+    <row r="17" ht="18.75" spans="1:4">
       <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>22</v>
+      <c r="B17" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="19" ht="18.75" spans="1:3">
       <c r="A19" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1363,29 +1378,34 @@
       <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" ht="18.75" spans="2:3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" ht="18.75" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="13"/>
+    <row r="23" ht="18.75" spans="1:4">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" ht="17" customHeight="1" spans="1:1">
       <c r="A25" s="2"/>
@@ -1405,7 +1425,7 @@
     </row>
     <row r="32" ht="18.75" spans="1:2">
       <c r="A32" s="2"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" customFormat="1" spans="1:1">
       <c r="A33" s="2"/>
@@ -1414,14 +1434,15 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://www.oracle.com/in/java/technologies/javase/jdk11-archive-downloads.html"/>
     <hyperlink ref="C7" r:id="rId2" display="https://maven.apache.org/download.cgi"/>
-    <hyperlink ref="C15" r:id="rId3" display="https://nodejs.org/en/download/"/>
-    <hyperlink ref="C17" r:id="rId4" display="https://code.visualstudio.com/download"/>
-    <hyperlink ref="C13" r:id="rId5" display="https://www.postman.com/downloads/"/>
+    <hyperlink ref="C17" r:id="rId3" display="https://nodejs.org/en/download/"/>
+    <hyperlink ref="C19" r:id="rId4" display="https://code.visualstudio.com/download"/>
+    <hyperlink ref="C15" r:id="rId5" display="https://www.postman.com/downloads/"/>
     <hyperlink ref="C9" r:id="rId6" display="https://tomcat.apache.org/download-90.cgi"/>
-    <hyperlink ref="C21" r:id="rId7" display="https://www.docker.com/get-started/"/>
+    <hyperlink ref="C23" r:id="rId7" display="https://www.docker.com/get-started/"/>
     <hyperlink ref="C5" r:id="rId8" display="https://spring.io/tools/"/>
     <hyperlink ref="C11" r:id="rId9" display="https://dev.mysql.com/downloads/mysql/"/>
-    <hyperlink ref="C19" r:id="rId10" display="https://www.jenkins.io/download/"/>
+    <hyperlink ref="C21" r:id="rId10" display="https://www.jenkins.io/download/"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://kafka.apache.org/downloads"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Required Software and Setup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Serial No.</t>
   </si>
@@ -163,19 +163,19 @@
     </r>
   </si>
   <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>https://www.postman.com/downloads/</t>
+  </si>
+  <si>
     <t>Apache Kafka</t>
   </si>
   <si>
     <t>https://kafka.apache.org/downloads</t>
   </si>
   <si>
-    <t>Installation and configuration will be done in class</t>
-  </si>
-  <si>
-    <t>Postman</t>
-  </si>
-  <si>
-    <t>https://www.postman.com/downloads/</t>
+    <t>Installation and configurartion will be done in class</t>
   </si>
   <si>
     <t>Node.js</t>
@@ -206,6 +206,15 @@
   </si>
   <si>
     <t>Sign up for Docker Hub @ the same URL</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/downloads</t>
+  </si>
+  <si>
+    <t>Sign up for a Git Hub account</t>
   </si>
 </sst>
 </file>
@@ -213,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -273,39 +282,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,7 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,16 +357,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,37 +403,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,73 +427,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,109 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +618,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,30 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -676,16 +685,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,7 +721,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,127 +742,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,12 +884,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1205,10 +1214,10 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:D13"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1317,31 +1326,31 @@
     <row r="12" spans="1:1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" ht="18.75" spans="1:4">
+    <row r="13" ht="18.75" spans="1:3">
       <c r="A13" s="2">
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" ht="18.75" spans="1:3">
+    <row r="15" ht="18.75" spans="1:4">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1352,7 +1361,7 @@
       <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1364,7 +1373,7 @@
       <c r="A19" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1378,7 +1387,7 @@
       <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1392,23 +1401,34 @@
       <c r="A23" s="2">
         <v>11</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" ht="17" customHeight="1" spans="1:1">
-      <c r="A25" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" ht="17" customHeight="1" spans="1:4">
+      <c r="A25" s="2">
+        <v>12</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2"/>
@@ -1436,13 +1456,14 @@
     <hyperlink ref="C7" r:id="rId2" display="https://maven.apache.org/download.cgi"/>
     <hyperlink ref="C17" r:id="rId3" display="https://nodejs.org/en/download/"/>
     <hyperlink ref="C19" r:id="rId4" display="https://code.visualstudio.com/download"/>
-    <hyperlink ref="C15" r:id="rId5" display="https://www.postman.com/downloads/"/>
+    <hyperlink ref="C13" r:id="rId5" display="https://www.postman.com/downloads/"/>
     <hyperlink ref="C9" r:id="rId6" display="https://tomcat.apache.org/download-90.cgi"/>
     <hyperlink ref="C23" r:id="rId7" display="https://www.docker.com/get-started/"/>
     <hyperlink ref="C5" r:id="rId8" display="https://spring.io/tools/"/>
     <hyperlink ref="C11" r:id="rId9" display="https://dev.mysql.com/downloads/mysql/"/>
     <hyperlink ref="C21" r:id="rId10" display="https://www.jenkins.io/download/"/>
-    <hyperlink ref="C13" r:id="rId11" display="https://kafka.apache.org/downloads"/>
+    <hyperlink ref="C15" r:id="rId11" display="https://kafka.apache.org/downloads"/>
+    <hyperlink ref="C25" r:id="rId12" display="https://git-scm.com/downloads"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -130,13 +130,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Refer </t>
     </r>
     <r>
@@ -196,7 +189,30 @@
     <t>https://www.jenkins.io/download/</t>
   </si>
   <si>
-    <t>Download the LTS Generic Java package (.war).</t>
+    <r>
+      <t xml:space="preserve">Download the LTS Generic Java package (.war). Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jenkins - Setup and Installation.pptx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in 'Setup and Installation' folder.</t>
+    </r>
   </si>
   <si>
     <t>Docker Desktop</t>
@@ -222,10 +238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -282,22 +298,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,15 +373,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -328,82 +390,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +443,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,175 +605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,30 +634,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,17 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,11 +685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,18 +710,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,127 +758,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -885,11 +901,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1214,10 +1232,10 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1383,7 +1401,7 @@
     <row r="20" spans="1:1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" ht="18.75" spans="1:4">
+    <row r="21" ht="45" spans="1:4">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -1393,7 +1411,7 @@
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1407,14 +1425,14 @@
       <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" ht="17" customHeight="1" spans="1:4">
       <c r="A25" s="2">
@@ -1423,10 +1441,10 @@
       <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>35</v>
       </c>
     </row>
